--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_8_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_8_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.9445162793765092, 2.402905323653504]</t>
+          <t>[1.9385253155543862, 2.408896287475627]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.16509880717100356, 0.40357348795809966]</t>
+          <t>[0.16507388893971542, 0.4035984061893878]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>1.768043655703266e-05</v>
+        <v>1.773905078117366e-05</v>
       </c>
       <c r="V2" t="n">
-        <v>1.768043655703266e-05</v>
+        <v>1.773905078117366e-05</v>
       </c>
       <c r="W2" t="n">
         <v>8.513633633633788</v>
